--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Info.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Info.xlsx
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEAE200-A5BE-48E4-9170-8BB1A44C13F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF32A451-7592-42DF-B134-C026AFEE650D}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Info.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Info.xlsx
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF32A451-7592-42DF-B134-C026AFEE650D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21EAF92-CE4F-4DD2-8846-8ECBD415BD93}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Info.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Info.xlsx
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21EAF92-CE4F-4DD2-8846-8ECBD415BD93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7357E0F4-7FD7-4694-A4B0-B62C0F23F902}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
